--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Sat</t>
+  </si>
+  <si>
+    <t>Mon</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1">
-        <v>362.0</v>
+        <v>363.0</v>
       </c>
     </row>
     <row r="4">
@@ -286,7 +289,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="1">
-        <v>415.0</v>
+        <v>416.0</v>
       </c>
     </row>
     <row r="6">
@@ -338,7 +341,7 @@
         <v>500.0</v>
       </c>
       <c r="H7" s="1">
-        <v>629.0</v>
+        <v>630.0</v>
       </c>
     </row>
     <row r="8">
@@ -389,8 +392,8 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="9">
-        <v>346.0</v>
+      <c r="H9" s="6">
+        <v>347.0</v>
       </c>
     </row>
     <row r="10">
@@ -441,8 +444,8 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="9">
-        <v>749.0</v>
+      <c r="H11" s="6">
+        <v>750.0</v>
       </c>
     </row>
     <row r="12">
@@ -493,8 +496,8 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="9">
-        <v>439.0</v>
+      <c r="H13" s="6">
+        <v>440.0</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="11"/>
@@ -548,7 +551,85 @@
         <v>0.0</v>
       </c>
       <c r="H15" s="1">
-        <v>604.0</v>
+        <v>605.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>43433.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="13">
+        <v>43433.86388888889</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43434.120833333334</v>
+      </c>
+      <c r="F16" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>693.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12">
+        <v>43434.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D17" s="13">
+        <v>43434.99930555555</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43435.15625</v>
+      </c>
+      <c r="F17" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>724.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>43436.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>43437.59375</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43437.80902777778</v>
+      </c>
+      <c r="F18" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>851.0</v>
       </c>
     </row>
   </sheetData>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Stake</t>
+  </si>
+  <si>
+    <t>Toughness</t>
   </si>
   <si>
     <t>sesStart</t>
@@ -186,31 +189,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>43376.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="4">
         <v>43376.625</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>43377.020833333336</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>440.0</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="1">
         <v>676.0</v>
       </c>
     </row>
@@ -219,24 +228,27 @@
         <v>43377.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="4">
         <v>43377.84027777778</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>43378.145833333336</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>600.0</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
         <v>363.0</v>
       </c>
     </row>
@@ -245,24 +257,27 @@
         <v>43378.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="4">
         <v>43378.479166666664</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>43378.868055555555</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>400.0</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1">
         <v>667.0</v>
       </c>
     </row>
@@ -271,24 +286,27 @@
         <v>43385.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>2.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="4">
         <v>43385.770833333336</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>43386.0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>250.0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
         <v>416.0</v>
       </c>
     </row>
@@ -297,24 +315,27 @@
         <v>43386.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>2.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="4">
         <v>43386.805555555555</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>43387.041666666664</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>660.0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1">
         <v>556.0</v>
       </c>
     </row>
@@ -323,24 +344,27 @@
         <v>43391.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>2.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="4">
         <v>43391.82986111111</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>43392.072916666664</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>200.0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>500.0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>630.0</v>
       </c>
     </row>
@@ -349,24 +373,27 @@
         <v>43393.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>2.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="4">
         <v>43393.864583333336</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>43394.010416666664</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>200.0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>300.0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>351.0</v>
       </c>
     </row>
@@ -375,24 +402,27 @@
         <v>43398.0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="4">
         <v>43398.850694444445</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>43399.12152777778</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>470.0</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="6">
         <v>347.0</v>
       </c>
     </row>
@@ -401,24 +431,27 @@
         <v>43400.0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>2.0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="4">
         <v>43400.913194444445</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>43401.12847222222</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>300.0</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="9">
         <v>499.0</v>
       </c>
     </row>
@@ -427,24 +460,27 @@
         <v>43405.0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="4">
         <v>43405.875</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>43406.069444444445</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>300.0</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="6">
         <v>750.0</v>
       </c>
     </row>
@@ -453,24 +489,27 @@
         <v>43412.0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>2.0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="4">
         <v>43412.836805555555</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>43413.07986111111</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>200.0</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="H12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="9">
         <v>453.0</v>
       </c>
     </row>
@@ -479,52 +518,58 @@
         <v>43414.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>2.0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="4">
         <v>43414.916666666664</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>43415.166666666664</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <v>600.0</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="H13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="6">
         <v>440.0</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="12">
         <v>43420.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E14" s="13">
         <v>43420.916666666664</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>43421.208333333336</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>690.0</v>
       </c>
-      <c r="G14" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -533,24 +578,27 @@
         <v>43421.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>2.0</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="13">
         <v>43421.854166666664</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F15" s="13">
         <v>43422.125</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>500.0</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="1">
         <v>605.0</v>
       </c>
     </row>
@@ -559,24 +607,27 @@
         <v>43433.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="13">
         <v>43433.86388888889</v>
       </c>
-      <c r="E16" s="13">
+      <c r="F16" s="13">
         <v>43434.120833333334</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>500.0</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="1">
         <v>693.0</v>
       </c>
     </row>
@@ -585,51 +636,173 @@
         <v>43434.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="13">
         <v>43434.99930555555</v>
       </c>
-      <c r="E17" s="13">
+      <c r="F17" s="13">
         <v>43435.15625</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>300.0</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.0</v>
-      </c>
       <c r="H17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="1">
         <v>724.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12">
-        <v>43436.0</v>
+        <v>43437.0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43437.59375</v>
+      </c>
+      <c r="F18" s="13">
+        <v>43437.80902777778</v>
+      </c>
+      <c r="G18" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>851.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12">
+        <v>43440.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43440.90972222222</v>
+      </c>
+      <c r="F19" s="13">
+        <v>43441.04375</v>
+      </c>
+      <c r="G19" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>701.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>43442.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="13">
-        <v>43437.59375</v>
-      </c>
-      <c r="E18" s="13">
-        <v>43437.80902777778</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="C20" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43442.03333333333</v>
+      </c>
+      <c r="F20" s="13">
+        <v>43442.17361111111</v>
+      </c>
+      <c r="G20" s="1">
+        <v>860.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>603.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12">
+        <v>43446.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>43446.9375</v>
+      </c>
+      <c r="F21" s="13">
+        <v>43447.135416666664</v>
+      </c>
+      <c r="G21" s="1">
         <v>300.0</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>851.0</v>
+      <c r="H21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>733.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>43448.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43448.933333333334</v>
+      </c>
+      <c r="F22" s="13">
+        <v>43449.09722222222</v>
+      </c>
+      <c r="G22" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1612.0</v>
       </c>
     </row>
   </sheetData>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -805,6 +805,35 @@
         <v>1612.0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="12">
+        <v>43449.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>43449.913194444445</v>
+      </c>
+      <c r="F23" s="13">
+        <v>43450.20486111111</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1200.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>577.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -834,6 +834,35 @@
         <v>577.0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>43460.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>43460.90625</v>
+      </c>
+      <c r="F24" s="13">
+        <v>43461.23263888889</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1316.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -863,6 +863,35 @@
         <v>1316.0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="12">
+        <v>43468.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>43103.94305555556</v>
+      </c>
+      <c r="F25" s="13">
+        <v>43104.26944444444</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1200.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1400.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
         <v>2.0</v>
       </c>
       <c r="E25" s="13">
-        <v>43103.94305555556</v>
+        <v>43468.94305555556</v>
       </c>
       <c r="F25" s="13">
-        <v>43104.26944444444</v>
+        <v>43469.26944444444</v>
       </c>
       <c r="G25" s="1">
         <v>1200.0</v>
@@ -890,6 +893,93 @@
       </c>
       <c r="I25" s="1">
         <v>1400.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>43473.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43473.62152777778</v>
+      </c>
+      <c r="F26" s="13">
+        <v>43474.208333333336</v>
+      </c>
+      <c r="G26" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12">
+        <v>43476.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>43476.972916666666</v>
+      </c>
+      <c r="F27" s="13">
+        <v>43477.29861111111</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1180.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1443.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>43510.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>43510.99166666667</v>
+      </c>
+      <c r="F28" s="13">
+        <v>43511.229166666664</v>
+      </c>
+      <c r="G28" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>871.0</v>
       </c>
     </row>
   </sheetData>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -726,7 +726,7 @@
         <v>43442.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
         <v>2.1</v>
@@ -979,7 +979,36 @@
         <v>0.0</v>
       </c>
       <c r="I28" s="1">
-        <v>871.0</v>
+        <v>872.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12">
+        <v>43511.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>43512.08541666667</v>
+      </c>
+      <c r="F29" s="13">
+        <v>43512.288194444445</v>
+      </c>
+      <c r="G29" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1159.0</v>
       </c>
     </row>
   </sheetData>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -1011,6 +1011,35 @@
         <v>1159.0</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>43514.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>43514.44305555556</v>
+      </c>
+      <c r="F30" s="13">
+        <v>43514.75</v>
+      </c>
+      <c r="G30" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>870.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -1040,6 +1040,35 @@
         <v>870.0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="12">
+        <v>43524.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>43524.88125</v>
+      </c>
+      <c r="F31" s="13">
+        <v>43525.06527777778</v>
+      </c>
+      <c r="G31" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>881.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -1069,6 +1069,35 @@
         <v>881.0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>43528.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>43528.51736111111</v>
+      </c>
+      <c r="F32" s="13">
+        <v>43528.808333333334</v>
+      </c>
+      <c r="G32" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1940.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -1098,6 +1098,35 @@
         <v>1940.0</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="12">
+        <v>43535.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>43535.79513888889</v>
+      </c>
+      <c r="F33" s="13">
+        <v>43536.104166666664</v>
+      </c>
+      <c r="G33" s="1">
+        <v>900.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1415.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -1127,6 +1127,35 @@
         <v>1415.0</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>43538.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>43538.99166666667</v>
+      </c>
+      <c r="F34" s="13">
+        <v>43539.275</v>
+      </c>
+      <c r="G34" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2820.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -62,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmm d"/>
     <numFmt numFmtId="165" formatCode="m/d/yy h:mm"/>
     <numFmt numFmtId="166" formatCode="mmmd"/>
+    <numFmt numFmtId="167" formatCode="mmmm d"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -102,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -143,6 +144,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1156,6 +1160,93 @@
         <v>2820.0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="12">
+        <v>43552.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>43552.65277777778</v>
+      </c>
+      <c r="F35" s="13">
+        <v>43553.125</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>342.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12">
+        <v>43581.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>43581.75</v>
+      </c>
+      <c r="F36" s="13">
+        <v>43582.28472222222</v>
+      </c>
+      <c r="G36" s="1">
+        <v>520.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>274.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14">
+        <v>43586.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>43586.575</v>
+      </c>
+      <c r="F37" s="13">
+        <v>43586.947916666664</v>
+      </c>
+      <c r="G37" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1233.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -62,11 +62,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mmm d"/>
     <numFmt numFmtId="165" formatCode="m/d/yy h:mm"/>
     <numFmt numFmtId="166" formatCode="mmmd"/>
     <numFmt numFmtId="167" formatCode="mmmm d"/>
+    <numFmt numFmtId="168" formatCode="m/d"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -103,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -147,6 +148,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1247,6 +1251,33 @@
         <v>1233.0</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="14">
+        <v>43592.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="13">
+        <v>43592.82777777778</v>
+      </c>
+      <c r="F38" s="13">
+        <v>43593.2375</v>
+      </c>
+      <c r="G38" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1240.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -162,11 +162,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="36">
       <c r="A36" s="12">
-        <v>43581.0</v>
+        <v>43559.0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -1207,75 +1207,394 @@
         <v>3.0</v>
       </c>
       <c r="E36" s="13">
+        <v>43559.79375</v>
+      </c>
+      <c r="F36" s="13">
+        <v>43560.135416666664</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1500.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12">
+        <v>43581.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E37" s="13">
         <v>43581.75</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>43582.28472222222</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G37" s="1">
         <v>520.0</v>
       </c>
-      <c r="H36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="H37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="1">
         <v>274.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14">
-        <v>43586.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E37" s="13">
-        <v>43586.575</v>
-      </c>
-      <c r="F37" s="13">
-        <v>43586.947916666664</v>
-      </c>
-      <c r="G37" s="1">
-        <v>260.0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1233.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="14">
+        <v>43586.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>43586.575</v>
+      </c>
+      <c r="F38" s="13">
+        <v>43586.947916666664</v>
+      </c>
+      <c r="G38" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1233.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="14">
         <v>43592.0</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="13">
+      <c r="C39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="13">
         <v>43592.82777777778</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>43593.2375</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G39" s="1">
         <v>600.0</v>
       </c>
-      <c r="H38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="H39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="1">
         <v>1240.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="14">
+        <v>43594.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.3</v>
+      </c>
+      <c r="E40" s="13">
+        <v>43594.98333333333</v>
+      </c>
+      <c r="F40" s="13">
+        <v>43595.17222222222</v>
+      </c>
+      <c r="G40" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>718.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14">
+        <v>43595.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E41" s="13">
+        <v>43595.95347222222</v>
+      </c>
+      <c r="F41" s="13">
+        <v>43596.40277777778</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1850.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="14">
+        <v>43596.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E42" s="13">
+        <v>43596.71597222222</v>
+      </c>
+      <c r="F42" s="13">
+        <v>43597.13888888889</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1066.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>203.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="14">
+        <v>43598.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>43598.56597222222</v>
+      </c>
+      <c r="F43" s="13">
+        <v>43598.754166666666</v>
+      </c>
+      <c r="G43" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1182.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="14">
+        <v>43602.0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E44" s="13">
+        <v>43602.97361111111</v>
+      </c>
+      <c r="F44" s="13">
+        <v>43603.444444444445</v>
+      </c>
+      <c r="G44" s="1">
+        <v>800.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="14">
+        <v>43605.0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E45" s="13">
+        <v>43605.52222222222</v>
+      </c>
+      <c r="F45" s="13">
+        <v>43605.649305555555</v>
+      </c>
+      <c r="G45" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>514.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="14">
+        <v>43607.0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>43607.85902777778</v>
+      </c>
+      <c r="F46" s="13">
+        <v>43608.197222222225</v>
+      </c>
+      <c r="G46" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>629.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="14">
+        <v>43613.0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E47" s="13">
+        <v>43613.595138888886</v>
+      </c>
+      <c r="F47" s="13">
+        <v>43613.791666666664</v>
+      </c>
+      <c r="G47" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>573.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="14">
+        <v>43615.0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E48" s="13">
+        <v>43615.825</v>
+      </c>
+      <c r="F48" s="13">
+        <v>43616.12777777778</v>
+      </c>
+      <c r="G48" s="1">
+        <v>720.0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>507.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12">
+        <v>43621.0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>43621.89444444444</v>
+      </c>
+      <c r="F49" s="13">
+        <v>43622.01736111111</v>
+      </c>
+      <c r="G49" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>691.0</v>
       </c>
     </row>
   </sheetData>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -57,17 +57,19 @@
   <si>
     <t>Tue</t>
   </si>
+  <si>
+    <t>Feb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mmm d"/>
     <numFmt numFmtId="165" formatCode="m/d/yy h:mm"/>
     <numFmt numFmtId="166" formatCode="mmmd"/>
     <numFmt numFmtId="167" formatCode="mmmm d"/>
-    <numFmt numFmtId="168" formatCode="m/d"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -104,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -150,9 +152,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1290,7 +1289,6 @@
       <c r="C39" s="1">
         <v>2.0</v>
       </c>
-      <c r="D39" s="15"/>
       <c r="E39" s="13">
         <v>43592.82777777778</v>
       </c>
@@ -1595,6 +1593,275 @@
       </c>
       <c r="I49" s="1">
         <v>691.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12">
+        <v>43630.0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="13">
+        <v>43631.799305555556</v>
+      </c>
+      <c r="F50" s="13">
+        <v>43632.13125</v>
+      </c>
+      <c r="G50" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12">
+        <v>43637.0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="13">
+        <v>43637.70763888889</v>
+      </c>
+      <c r="F51" s="13">
+        <v>43637.979166666664</v>
+      </c>
+      <c r="G51" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>138.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12">
+        <v>43640.0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="13">
+        <v>43640.67986111111</v>
+      </c>
+      <c r="F52" s="13">
+        <v>43640.78680555556</v>
+      </c>
+      <c r="G52" s="1">
+        <v>450.0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="14">
+        <v>43647.0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E53" s="13">
+        <v>43647.870833333334</v>
+      </c>
+      <c r="F53" s="13">
+        <v>43648.10763888889</v>
+      </c>
+      <c r="G53" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>627.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="14">
+        <v>43649.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>43649.94930555556</v>
+      </c>
+      <c r="F54" s="13">
+        <v>43650.125</v>
+      </c>
+      <c r="G54" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>410.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="14">
+        <v>43654.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>43654.930555555555</v>
+      </c>
+      <c r="F55" s="13">
+        <v>43655.23819444444</v>
+      </c>
+      <c r="G55" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>462.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12">
+        <v>43683.0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="13">
+        <v>43683.55625</v>
+      </c>
+      <c r="F56" s="13">
+        <v>43684.00555555556</v>
+      </c>
+      <c r="G56" s="1">
+        <v>560.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>962.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12">
+        <v>43684.0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="13">
+        <v>43684.802083333336</v>
+      </c>
+      <c r="F57" s="13">
+        <v>43685.006944444445</v>
+      </c>
+      <c r="G57" s="1">
+        <v>660.0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12">
+        <v>43696.0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D58" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="13">
+        <v>43696.52847222222</v>
+      </c>
+      <c r="F58" s="13">
+        <v>43696.72083333333</v>
+      </c>
+      <c r="G58" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>639.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12">
+        <v>43699.0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="13">
+        <v>43699.80972222222</v>
+      </c>
+      <c r="F59" s="13">
+        <v>43700.010416666664</v>
+      </c>
+      <c r="G59" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>631.0</v>
       </c>
     </row>
   </sheetData>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -1864,6 +1864,35 @@
         <v>631.0</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="12">
+        <v>43703.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E60" s="13">
+        <v>43703.49444444444</v>
+      </c>
+      <c r="F60" s="13">
+        <v>43703.7125</v>
+      </c>
+      <c r="G60" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>477.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -1893,6 +1893,58 @@
         <v>477.0</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="12">
+        <v>43705.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="13">
+        <v>43705.83472222222</v>
+      </c>
+      <c r="F61" s="13">
+        <v>43706.14027777778</v>
+      </c>
+      <c r="G61" s="1">
+        <v>740.0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>469.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12">
+        <v>43707.0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E62" s="13">
+        <v>43707.80625</v>
+      </c>
+      <c r="F62" s="13">
+        <v>43707.95763888889</v>
+      </c>
+      <c r="G62" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>768.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -60,16 +60,20 @@
   <si>
     <t>Feb</t>
   </si>
+  <si>
+    <t>Sun</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mmm d"/>
     <numFmt numFmtId="165" formatCode="m/d/yy h:mm"/>
     <numFmt numFmtId="166" formatCode="mmmd"/>
     <numFmt numFmtId="167" formatCode="mmmm d"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -106,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -152,6 +156,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1945,6 +1955,344 @@
         <v>768.0</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="12">
+        <v>43710.0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E63" s="13">
+        <v>43710.384722222225</v>
+      </c>
+      <c r="F63" s="13">
+        <v>43710.62013888889</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1280.0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12">
+        <v>44085.0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E64" s="13">
+        <v>43720.08611111111</v>
+      </c>
+      <c r="F64" s="13">
+        <v>43720.291666666664</v>
+      </c>
+      <c r="G64" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>366.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12">
+        <v>44087.0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="13">
+        <v>43721.70763888889</v>
+      </c>
+      <c r="F65" s="13">
+        <v>43721.938888888886</v>
+      </c>
+      <c r="G65" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>894.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12">
+        <v>44094.0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E66" s="13">
+        <v>43728.92013888889</v>
+      </c>
+      <c r="F66" s="13">
+        <v>43729.083333333336</v>
+      </c>
+      <c r="G66" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>509.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12">
+        <v>44113.0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E67" s="15">
+        <v>43747.48819444444</v>
+      </c>
+      <c r="F67" s="15">
+        <v>43747.666666666664</v>
+      </c>
+      <c r="G67" s="1">
+        <v>360.0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12">
+        <v>44136.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E68" s="15">
+        <v>43771.01111111111</v>
+      </c>
+      <c r="F68" s="15">
+        <v>43771.114583333336</v>
+      </c>
+      <c r="G68" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12">
+        <v>44143.0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E69" s="16">
+        <v>43777.694444444445</v>
+      </c>
+      <c r="F69" s="13">
+        <v>43778.125</v>
+      </c>
+      <c r="G69" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>699.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12">
+        <v>44153.0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="13">
+        <v>43788.03472222222</v>
+      </c>
+      <c r="F70" s="13">
+        <v>43788.20625</v>
+      </c>
+      <c r="G70" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1231.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12">
+        <v>44157.0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E71" s="13">
+        <v>43791.71875</v>
+      </c>
+      <c r="F71" s="13">
+        <v>43791.944444444445</v>
+      </c>
+      <c r="G71" s="1">
+        <v>960.0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12">
+        <v>44160.0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E72" s="13">
+        <v>43794.913194444445</v>
+      </c>
+      <c r="F72" s="13">
+        <v>43795.02291666667</v>
+      </c>
+      <c r="G72" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>908.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12">
+        <v>44164.0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E73" s="13">
+        <v>43799.01111111111</v>
+      </c>
+      <c r="F73" s="13">
+        <v>43799.25347222222</v>
+      </c>
+      <c r="G73" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>784.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12">
+        <v>44173.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="15">
+        <v>43807.961805555555</v>
+      </c>
+      <c r="F74" s="15">
+        <v>43808.15277777778</v>
+      </c>
+      <c r="G74" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>382.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12">
+        <v>43834.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E75" s="15">
+        <v>43835.118055555555</v>
+      </c>
+      <c r="F75" s="15">
+        <v>43835.552083333336</v>
+      </c>
+      <c r="G75" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1263.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/DesciplinePokerAtheletes.xlsx
+++ b/DesciplinePokerAtheletes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Feb</t>
-  </si>
-  <si>
-    <t>Sun</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1957,7 @@
         <v>43710.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1">
         <v>2.6</v>
